--- a/Code/Results/Cases/Case_4_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.37848826292749</v>
+        <v>19.38681531086944</v>
       </c>
       <c r="C2">
-        <v>27.97974496941596</v>
+        <v>17.57355236682683</v>
       </c>
       <c r="D2">
-        <v>7.325405257096667</v>
+        <v>6.009292065293865</v>
       </c>
       <c r="E2">
-        <v>7.36687201622129</v>
+        <v>7.774514202376145</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.031384661752234</v>
+        <v>3.675116028684679</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.02923781212306</v>
+        <v>29.35107731766757</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>22.15894283085657</v>
+        <v>18.42280294353653</v>
       </c>
       <c r="N2">
-        <v>14.34629036662368</v>
+        <v>19.77824548082043</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.24277194494606</v>
+        <v>18.76123206061898</v>
       </c>
       <c r="C3">
-        <v>25.85783410328397</v>
+        <v>16.82908844989909</v>
       </c>
       <c r="D3">
-        <v>6.776770833346692</v>
+        <v>5.89723883164923</v>
       </c>
       <c r="E3">
-        <v>6.971971463903628</v>
+        <v>7.716581039622087</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.048664852259841</v>
+        <v>3.680583528159862</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.66534066165129</v>
+        <v>29.09808750766401</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.49741026433194</v>
+        <v>18.11792247215401</v>
       </c>
       <c r="N3">
-        <v>14.37828830036102</v>
+        <v>19.79473547196474</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.87871384108637</v>
+        <v>18.37390927265285</v>
       </c>
       <c r="C4">
-        <v>24.50717721086706</v>
+        <v>16.36159185971481</v>
       </c>
       <c r="D4">
-        <v>6.426230352619799</v>
+        <v>5.829519043069825</v>
       </c>
       <c r="E4">
-        <v>6.729586489485152</v>
+        <v>7.683062430559606</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.059366570987035</v>
+        <v>3.684105462121306</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.83738733213167</v>
+        <v>28.94948036332909</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.43597573876178</v>
+        <v>17.93468553182011</v>
       </c>
       <c r="N4">
-        <v>14.40624685262942</v>
+        <v>19.80672557746484</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.30906466882781</v>
+        <v>18.21554462688747</v>
       </c>
       <c r="C5">
-        <v>23.94421596569296</v>
+        <v>16.16879278750461</v>
       </c>
       <c r="D5">
-        <v>6.279790588708455</v>
+        <v>5.802232910995939</v>
       </c>
       <c r="E5">
-        <v>6.630833455073781</v>
+        <v>7.669928047211701</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.063759520267637</v>
+        <v>3.685582341283712</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.50230265611063</v>
+        <v>28.89065498565777</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.99259126166529</v>
+        <v>17.86110822910147</v>
       </c>
       <c r="N5">
-        <v>14.41955182842552</v>
+        <v>19.8120780505478</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.21362836110904</v>
+        <v>18.18922497010944</v>
       </c>
       <c r="C6">
-        <v>23.8499643179487</v>
+        <v>16.13665046681704</v>
       </c>
       <c r="D6">
-        <v>6.255253309105901</v>
+        <v>5.797721919279118</v>
       </c>
       <c r="E6">
-        <v>6.614437469436299</v>
+        <v>7.667779015077697</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.064491131998289</v>
+        <v>3.685830098257883</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.44680158956591</v>
+        <v>28.88099288494044</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.91830008951719</v>
+        <v>17.84895960152745</v>
       </c>
       <c r="N6">
-        <v>14.42187175327265</v>
+        <v>19.812994917848</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.87108780713307</v>
+        <v>18.37177526415463</v>
       </c>
       <c r="C7">
-        <v>24.49963640633599</v>
+        <v>16.35900052422708</v>
       </c>
       <c r="D7">
-        <v>6.424270146716618</v>
+        <v>5.829149746258763</v>
       </c>
       <c r="E7">
-        <v>6.728254563597144</v>
+        <v>7.682883160514328</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.059425675705932</v>
+        <v>3.684125210867066</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.83285891999423</v>
+        <v>28.94867995441296</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.43004057911483</v>
+        <v>17.93368868918121</v>
       </c>
       <c r="N7">
-        <v>14.40641876831354</v>
+        <v>19.80679587776061</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.65269198324276</v>
+        <v>19.17194347716924</v>
       </c>
       <c r="C8">
-        <v>27.2576737390947</v>
+        <v>17.31920073375996</v>
       </c>
       <c r="D8">
-        <v>7.138977154924834</v>
+        <v>5.970454742293945</v>
       </c>
       <c r="E8">
-        <v>7.230680960605705</v>
+        <v>7.754118292600665</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.037329575824292</v>
+        <v>3.676967128385445</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.55692008846552</v>
+        <v>29.26247541253379</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.59430676541905</v>
+        <v>18.31691699191426</v>
       </c>
       <c r="N8">
-        <v>14.35548374326748</v>
+        <v>19.78354254283886</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.71776054562888</v>
+        <v>20.70421659761326</v>
       </c>
       <c r="C9">
-        <v>32.31719670724446</v>
+        <v>19.10732295006772</v>
       </c>
       <c r="D9">
-        <v>8.43999128035434</v>
+        <v>6.254445693708989</v>
       </c>
       <c r="E9">
-        <v>8.22104606107029</v>
+        <v>7.909672615443547</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.994252453508623</v>
+        <v>3.664228905059383</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.02306532359992</v>
+        <v>29.92925659588488</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25.53579427502078</v>
+        <v>19.09550872045144</v>
       </c>
       <c r="N9">
-        <v>14.33092932386185</v>
+        <v>19.75286004494656</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.25083291162655</v>
+        <v>21.79370749178197</v>
       </c>
       <c r="C10">
-        <v>35.87495261234718</v>
+        <v>20.34908810029061</v>
       </c>
       <c r="D10">
-        <v>9.347980032552446</v>
+        <v>6.46506195955012</v>
       </c>
       <c r="E10">
-        <v>9.123701310361692</v>
+        <v>8.032999933275587</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.961948607014602</v>
+        <v>3.655648695779345</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.6483883998302</v>
+        <v>30.44765154136955</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.28855225573217</v>
+        <v>19.67821042148061</v>
       </c>
       <c r="N10">
-        <v>14.37449957414339</v>
+        <v>19.73957483297518</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.83180119241539</v>
+        <v>22.27896660747294</v>
       </c>
       <c r="C11">
-        <v>37.47487608898838</v>
+        <v>20.89600677000592</v>
       </c>
       <c r="D11">
-        <v>9.75453641913229</v>
+        <v>6.560847685001749</v>
       </c>
       <c r="E11">
-        <v>9.529510165988272</v>
+        <v>8.090917757679367</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.946871444140307</v>
+        <v>3.651911546222876</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.87042439860071</v>
+        <v>30.6890157414335</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>29.52181674700957</v>
+        <v>19.94439478828297</v>
       </c>
       <c r="N11">
-        <v>14.41219442998978</v>
+        <v>19.73557619609658</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.42829173262894</v>
+        <v>22.46105170155342</v>
       </c>
       <c r="C12">
-        <v>38.07983620606831</v>
+        <v>21.10036672648758</v>
       </c>
       <c r="D12">
-        <v>9.907976131694088</v>
+        <v>6.597079405435405</v>
       </c>
       <c r="E12">
-        <v>9.682942679132985</v>
+        <v>8.113097168863755</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.941080894721063</v>
+        <v>3.650520036515521</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.40582662229159</v>
+        <v>30.78115291472636</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>29.98739990169286</v>
+        <v>20.04525296121207</v>
       </c>
       <c r="N12">
-        <v>14.42952038665027</v>
+        <v>19.73435889182163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.29989446206723</v>
+        <v>22.42191348319073</v>
       </c>
       <c r="C13">
-        <v>37.9495539016063</v>
+        <v>21.05647862863066</v>
       </c>
       <c r="D13">
-        <v>9.874945207083023</v>
+        <v>6.589278613277163</v>
       </c>
       <c r="E13">
-        <v>9.64990038805754</v>
+        <v>8.108309668566491</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.94233209415435</v>
+        <v>3.650818673708003</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>36.2883353574126</v>
+        <v>30.7612776719067</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>29.88716742562722</v>
+        <v>20.02353023569326</v>
       </c>
       <c r="N13">
-        <v>14.42564432948038</v>
+        <v>19.73460781043805</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.88090814067088</v>
+        <v>22.29398134431785</v>
       </c>
       <c r="C14">
-        <v>37.52465270390684</v>
+        <v>20.91287547177729</v>
       </c>
       <c r="D14">
-        <v>9.76716752976281</v>
+        <v>6.56382950155361</v>
       </c>
       <c r="E14">
-        <v>9.542134925519461</v>
+        <v>8.092737598516747</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.946396853181901</v>
+        <v>3.651796592736732</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.90881743711373</v>
+        <v>30.69658148062296</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>29.56014053035633</v>
+        <v>19.95269180909433</v>
       </c>
       <c r="N14">
-        <v>14.41355552966577</v>
+        <v>19.73547008132552</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.62403592430462</v>
+        <v>22.21539638219211</v>
       </c>
       <c r="C15">
-        <v>37.26433201620835</v>
+        <v>20.82455233263936</v>
       </c>
       <c r="D15">
-        <v>9.701097814760274</v>
+        <v>6.548234882244783</v>
       </c>
       <c r="E15">
-        <v>9.476109795730403</v>
+        <v>8.083231026237923</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.948875173331038</v>
+        <v>3.652398672445664</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.70827303142575</v>
+        <v>30.65704749181032</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>29.35968540676189</v>
+        <v>19.90930612897764</v>
       </c>
       <c r="N15">
-        <v>14.40656438856888</v>
+        <v>19.73603699554767</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.14711164954388</v>
+        <v>21.76177019764847</v>
       </c>
       <c r="C16">
-        <v>35.77016223288161</v>
+        <v>20.3129696741229</v>
       </c>
       <c r="D16">
-        <v>9.32131355459196</v>
+        <v>6.458798465719916</v>
       </c>
       <c r="E16">
-        <v>9.09712021690768</v>
+        <v>8.029250226046113</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.962924153376553</v>
+        <v>3.655896250553015</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.56918745771149</v>
+        <v>30.43198433213604</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>28.20767783287274</v>
+        <v>19.66082839045217</v>
       </c>
       <c r="N16">
-        <v>14.37243454753232</v>
+        <v>19.73987754449372</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.23535625305504</v>
+        <v>21.4806964205309</v>
       </c>
       <c r="C17">
-        <v>34.84991777062473</v>
+        <v>19.99440493178546</v>
       </c>
       <c r="D17">
-        <v>9.08693351111304</v>
+        <v>6.403899176554076</v>
       </c>
       <c r="E17">
-        <v>8.863679556680299</v>
+        <v>7.996590057471546</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.971428212385022</v>
+        <v>3.658084278646809</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.87831596055103</v>
+        <v>30.29529345889771</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>27.49692939608366</v>
+        <v>19.50860777081048</v>
       </c>
       <c r="N17">
-        <v>14.3563853064907</v>
+        <v>19.74275936231749</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.70835410178626</v>
+        <v>21.3180651234432</v>
       </c>
       <c r="C18">
-        <v>34.31874653893674</v>
+        <v>19.80949188416469</v>
       </c>
       <c r="D18">
-        <v>8.951483142169646</v>
+        <v>6.37232233565745</v>
       </c>
       <c r="E18">
-        <v>8.728925003989584</v>
+        <v>7.977976554493699</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.976285462745639</v>
+        <v>3.659358414577537</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.48345654369178</v>
+        <v>30.21719794634758</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>27.08624576703643</v>
+        <v>19.42116480068425</v>
       </c>
       <c r="N18">
-        <v>14.34880241335861</v>
+        <v>19.74460921141118</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.52943409856508</v>
+        <v>21.26284110315372</v>
       </c>
       <c r="C19">
-        <v>34.13853289933287</v>
+        <v>19.74659980547225</v>
       </c>
       <c r="D19">
-        <v>8.905500652788795</v>
+        <v>6.361632066755702</v>
       </c>
       <c r="E19">
-        <v>8.683203900536562</v>
+        <v>7.971704257282132</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.977924891432482</v>
+        <v>3.659792507600479</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.35016184763049</v>
+        <v>30.19084818253043</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26.94683772472142</v>
+        <v>19.39158015059672</v>
       </c>
       <c r="N19">
-        <v>14.34650507253549</v>
+        <v>19.74526848004957</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.33267139910326</v>
+        <v>21.51071847522681</v>
       </c>
       <c r="C20">
-        <v>34.94806160555955</v>
+        <v>20.02849213659632</v>
       </c>
       <c r="D20">
-        <v>9.111947304374342</v>
+        <v>6.40974359366082</v>
       </c>
       <c r="E20">
-        <v>8.888577034144925</v>
+        <v>8.000049110459113</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.97052663526061</v>
+        <v>3.657849742135402</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.95159225905552</v>
+        <v>30.3097904782348</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>27.57277590469768</v>
+        <v>19.52480123263211</v>
       </c>
       <c r="N20">
-        <v>14.3579200429542</v>
+        <v>19.74243266458898</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.00401929439531</v>
+        <v>22.33160485160891</v>
       </c>
       <c r="C21">
-        <v>37.64946441373122</v>
+        <v>20.95513090951601</v>
       </c>
       <c r="D21">
-        <v>9.798834542949146</v>
+        <v>6.571305899374334</v>
       </c>
       <c r="E21">
-        <v>9.573790543856717</v>
+        <v>8.097304897548693</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.94520538039944</v>
+        <v>3.651508713533365</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>36.01800702153505</v>
+        <v>30.7155647766928</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>29.65622298457752</v>
+        <v>19.97349792381265</v>
       </c>
       <c r="N21">
-        <v>14.41701908783675</v>
+        <v>19.73520873124717</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.73820528762222</v>
+        <v>22.85828476708469</v>
       </c>
       <c r="C22">
-        <v>39.41095197293637</v>
+        <v>21.54467663743613</v>
       </c>
       <c r="D22">
-        <v>10.24503467892308</v>
+        <v>6.676645754868922</v>
       </c>
       <c r="E22">
-        <v>10.02052797616007</v>
+        <v>8.162301206139658</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.928165862700448</v>
+        <v>3.647502341533898</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.61059182663211</v>
+        <v>30.98503375835221</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>31.01042127662151</v>
+        <v>20.26705271809106</v>
       </c>
       <c r="N22">
-        <v>14.47374295275263</v>
+        <v>19.73221930529108</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.81307017082023</v>
+        <v>22.57813937074247</v>
       </c>
       <c r="C23">
-        <v>38.47046868502089</v>
+        <v>21.23154265498241</v>
       </c>
       <c r="D23">
-        <v>10.00697038625434</v>
+        <v>6.620458496524555</v>
       </c>
       <c r="E23">
-        <v>9.78201374774835</v>
+        <v>8.127484952488244</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.937315634623697</v>
+        <v>3.649628072484258</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.75856952632226</v>
+        <v>30.84084213976264</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>30.28782039782357</v>
+        <v>20.1103810908647</v>
       </c>
       <c r="N23">
-        <v>14.44162218265139</v>
+        <v>19.7336554178948</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.28868412502157</v>
+        <v>21.49714872409178</v>
       </c>
       <c r="C24">
-        <v>34.90369747820303</v>
+        <v>20.01308679918917</v>
       </c>
       <c r="D24">
-        <v>9.100640785699575</v>
+        <v>6.407101375073526</v>
       </c>
       <c r="E24">
-        <v>8.877322619184895</v>
+        <v>7.998484763027849</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.970934335588384</v>
+        <v>3.657955725587743</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.91845687502266</v>
+        <v>30.30323484540191</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>27.53849222350859</v>
+        <v>19.51747994074832</v>
       </c>
       <c r="N24">
-        <v>14.35722110262719</v>
+        <v>19.74257976352843</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.38473399510057</v>
+        <v>20.29514688180665</v>
       </c>
       <c r="C25">
-        <v>30.98100469833188</v>
+        <v>18.63532756477963</v>
       </c>
       <c r="D25">
-        <v>8.09755500479271</v>
+        <v>6.177114105661265</v>
       </c>
       <c r="E25">
-        <v>7.950678995859399</v>
+        <v>7.865954436815235</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.005952916861317</v>
+        <v>3.667537252770455</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.07422256237276</v>
+        <v>29.74365115702656</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>24.49809278977634</v>
+        <v>18.88258495423499</v>
       </c>
       <c r="N25">
-        <v>14.32805552572211</v>
+        <v>19.75954658430596</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.38681531086944</v>
+        <v>28.37848826292759</v>
       </c>
       <c r="C2">
-        <v>17.57355236682683</v>
+        <v>27.97974496941605</v>
       </c>
       <c r="D2">
-        <v>6.009292065293865</v>
+        <v>7.325405257096527</v>
       </c>
       <c r="E2">
-        <v>7.774514202376145</v>
+        <v>7.36687201622126</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.675116028684679</v>
+        <v>2.031384661752234</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.35107731766757</v>
+        <v>29.02923781212309</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.42280294353653</v>
+        <v>22.15894283085665</v>
       </c>
       <c r="N2">
-        <v>19.77824548082043</v>
+        <v>14.34629036662357</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.76123206061898</v>
+        <v>26.24277194494609</v>
       </c>
       <c r="C3">
-        <v>16.82908844989909</v>
+        <v>25.85783410328405</v>
       </c>
       <c r="D3">
-        <v>5.89723883164923</v>
+        <v>6.776770833346641</v>
       </c>
       <c r="E3">
-        <v>7.716581039622087</v>
+        <v>6.971971463903678</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.680583528159862</v>
+        <v>2.048664852260241</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.09808750766401</v>
+        <v>27.66534066165122</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.11792247215401</v>
+        <v>20.49741026433197</v>
       </c>
       <c r="N3">
-        <v>19.79473547196474</v>
+        <v>14.37828830036091</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.37390927265285</v>
+        <v>24.8787138410863</v>
       </c>
       <c r="C4">
-        <v>16.36159185971481</v>
+        <v>24.50717721086699</v>
       </c>
       <c r="D4">
-        <v>5.829519043069825</v>
+        <v>6.426230352619715</v>
       </c>
       <c r="E4">
-        <v>7.683062430559606</v>
+        <v>6.729586489485066</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.684105462121306</v>
+        <v>2.059366570987029</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.94948036332909</v>
+        <v>26.83738733213185</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.93468553182011</v>
+        <v>19.43597573876175</v>
       </c>
       <c r="N4">
-        <v>19.80672557746484</v>
+        <v>14.40624685262947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21554462688747</v>
+        <v>24.30906466882787</v>
       </c>
       <c r="C5">
-        <v>16.16879278750461</v>
+        <v>23.94421596569296</v>
       </c>
       <c r="D5">
-        <v>5.802232910995939</v>
+        <v>6.27979058870843</v>
       </c>
       <c r="E5">
-        <v>7.669928047211701</v>
+        <v>6.630833455073779</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.685582341283712</v>
+        <v>2.063759520267503</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.89065498565777</v>
+        <v>26.5023026561106</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.86110822910147</v>
+        <v>18.99259126166528</v>
       </c>
       <c r="N5">
-        <v>19.8120780505478</v>
+        <v>14.4195518284255</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.18922497010944</v>
+        <v>24.21362836110901</v>
       </c>
       <c r="C6">
-        <v>16.13665046681704</v>
+        <v>23.84996431794875</v>
       </c>
       <c r="D6">
-        <v>5.797721919279118</v>
+        <v>6.25525330910581</v>
       </c>
       <c r="E6">
-        <v>7.667779015077697</v>
+        <v>6.614437469436293</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.685830098257883</v>
+        <v>2.064491131998685</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.88099288494044</v>
+        <v>26.4468015895661</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.84895960152745</v>
+        <v>18.91830008951712</v>
       </c>
       <c r="N6">
-        <v>19.812994917848</v>
+        <v>14.42187175327273</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.37177526415463</v>
+        <v>24.8710878071331</v>
       </c>
       <c r="C7">
-        <v>16.35900052422708</v>
+        <v>24.49963640633601</v>
       </c>
       <c r="D7">
-        <v>5.829149746258763</v>
+        <v>6.424270146716629</v>
       </c>
       <c r="E7">
-        <v>7.682883160514328</v>
+        <v>6.728254563597131</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.684125210867066</v>
+        <v>2.059425675706059</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.94867995441296</v>
+        <v>26.83285891999428</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.93368868918121</v>
+        <v>19.43004057911483</v>
       </c>
       <c r="N7">
-        <v>19.80679587776061</v>
+        <v>14.40641876831358</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.17194347716924</v>
+        <v>27.65269198324276</v>
       </c>
       <c r="C8">
-        <v>17.31920073375996</v>
+        <v>27.25767373909465</v>
       </c>
       <c r="D8">
-        <v>5.970454742293945</v>
+        <v>7.138977154924878</v>
       </c>
       <c r="E8">
-        <v>7.754118292600665</v>
+        <v>7.230680960605652</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.676967128385445</v>
+        <v>2.037329575824024</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.26247541253379</v>
+        <v>28.55692008846557</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.31691699191426</v>
+        <v>21.59430676541905</v>
       </c>
       <c r="N8">
-        <v>19.78354254283886</v>
+        <v>14.35548374326757</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.70421659761326</v>
+        <v>32.71776054562867</v>
       </c>
       <c r="C9">
-        <v>19.10732295006772</v>
+        <v>32.31719670724436</v>
       </c>
       <c r="D9">
-        <v>6.254445693708989</v>
+        <v>8.439991280354279</v>
       </c>
       <c r="E9">
-        <v>7.909672615443547</v>
+        <v>8.221046061070311</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.664228905059383</v>
+        <v>1.994252453508623</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.92925659588488</v>
+        <v>32.02306532359992</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.09550872045144</v>
+        <v>25.53579427502068</v>
       </c>
       <c r="N9">
-        <v>19.75286004494656</v>
+        <v>14.33092932386192</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.79370749178197</v>
+        <v>36.25083291162682</v>
       </c>
       <c r="C10">
-        <v>20.34908810029061</v>
+        <v>35.87495261234734</v>
       </c>
       <c r="D10">
-        <v>6.46506195955012</v>
+        <v>9.347980032552464</v>
       </c>
       <c r="E10">
-        <v>8.032999933275587</v>
+        <v>9.123701310361687</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.655648695779345</v>
+        <v>1.961948607014598</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.44765154136955</v>
+        <v>34.64838839983022</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.67821042148061</v>
+        <v>28.28855225573235</v>
       </c>
       <c r="N10">
-        <v>19.73957483297518</v>
+        <v>14.37449957414324</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.27896660747294</v>
+        <v>37.83180119241529</v>
       </c>
       <c r="C11">
-        <v>20.89600677000592</v>
+        <v>37.47487608898825</v>
       </c>
       <c r="D11">
-        <v>6.560847685001749</v>
+        <v>9.754536419132261</v>
       </c>
       <c r="E11">
-        <v>8.090917757679367</v>
+        <v>9.529510165988297</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.651911546222876</v>
+        <v>1.946871444140438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.6890157414335</v>
+        <v>35.87042439860068</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.94439478828297</v>
+        <v>29.52181674700952</v>
       </c>
       <c r="N11">
-        <v>19.73557619609658</v>
+        <v>14.41219442998982</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.46105170155342</v>
+        <v>38.42829173262898</v>
       </c>
       <c r="C12">
-        <v>21.10036672648758</v>
+        <v>38.07983620606822</v>
       </c>
       <c r="D12">
-        <v>6.597079405435405</v>
+        <v>9.907976131694038</v>
       </c>
       <c r="E12">
-        <v>8.113097168863755</v>
+        <v>9.682942679132898</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.650520036515521</v>
+        <v>1.941080894721329</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.78115291472636</v>
+        <v>36.40582662229158</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.04525296121207</v>
+        <v>29.98739990169284</v>
       </c>
       <c r="N12">
-        <v>19.73435889182163</v>
+        <v>14.42952038665032</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.42191348319073</v>
+        <v>38.29989446206713</v>
       </c>
       <c r="C13">
-        <v>21.05647862863066</v>
+        <v>37.94955390160622</v>
       </c>
       <c r="D13">
-        <v>6.589278613277163</v>
+        <v>9.874945207083115</v>
       </c>
       <c r="E13">
-        <v>8.108309668566491</v>
+        <v>9.649900388057505</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.650818673708003</v>
+        <v>1.942332094154222</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.7612776719067</v>
+        <v>36.28833535741254</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.02353023569326</v>
+        <v>29.88716742562712</v>
       </c>
       <c r="N13">
-        <v>19.73460781043805</v>
+        <v>14.42564432948043</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.29398134431785</v>
+        <v>37.88090814067098</v>
       </c>
       <c r="C14">
-        <v>20.91287547177729</v>
+        <v>37.52465270390689</v>
       </c>
       <c r="D14">
-        <v>6.56382950155361</v>
+        <v>9.767167529762824</v>
       </c>
       <c r="E14">
-        <v>8.092737598516747</v>
+        <v>9.542134925519498</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.651796592736732</v>
+        <v>1.946396853181766</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.69658148062296</v>
+        <v>35.90881743711376</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.95269180909433</v>
+        <v>29.56014053035642</v>
       </c>
       <c r="N14">
-        <v>19.73547008132552</v>
+        <v>14.41355552966572</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.21539638219211</v>
+        <v>37.62403592430468</v>
       </c>
       <c r="C15">
-        <v>20.82455233263936</v>
+        <v>37.26433201620849</v>
       </c>
       <c r="D15">
-        <v>6.548234882244783</v>
+        <v>9.701097814760246</v>
       </c>
       <c r="E15">
-        <v>8.083231026237923</v>
+        <v>9.476109795730375</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.652398672445664</v>
+        <v>1.948875173331045</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.65704749181032</v>
+        <v>35.70827303142575</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.90930612897764</v>
+        <v>29.35968540676193</v>
       </c>
       <c r="N15">
-        <v>19.73603699554767</v>
+        <v>14.40656438856885</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.76177019764847</v>
+        <v>36.14711164954388</v>
       </c>
       <c r="C16">
-        <v>20.3129696741229</v>
+        <v>35.7701622328816</v>
       </c>
       <c r="D16">
-        <v>6.458798465719916</v>
+        <v>9.321313554591926</v>
       </c>
       <c r="E16">
-        <v>8.029250226046113</v>
+        <v>9.097120216907602</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.655896250553015</v>
+        <v>1.962924153376691</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.43198433213604</v>
+        <v>34.56918745771149</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.66082839045217</v>
+        <v>28.20767783287271</v>
       </c>
       <c r="N16">
-        <v>19.73987754449372</v>
+        <v>14.37243454753233</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.4806964205309</v>
+        <v>35.23535625305529</v>
       </c>
       <c r="C17">
-        <v>19.99440493178546</v>
+        <v>34.84991777062483</v>
       </c>
       <c r="D17">
-        <v>6.403899176554076</v>
+        <v>9.086933511113024</v>
       </c>
       <c r="E17">
-        <v>7.996590057471546</v>
+        <v>8.863679556680291</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.658084278646809</v>
+        <v>1.971428212384883</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.29529345889771</v>
+        <v>33.87831596055111</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.50860777081048</v>
+        <v>27.4969293960838</v>
       </c>
       <c r="N17">
-        <v>19.74275936231749</v>
+        <v>14.3563853064907</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.3180651234432</v>
+        <v>34.70835410178616</v>
       </c>
       <c r="C18">
-        <v>19.80949188416469</v>
+        <v>34.31874653893662</v>
       </c>
       <c r="D18">
-        <v>6.37232233565745</v>
+        <v>8.951483142169678</v>
       </c>
       <c r="E18">
-        <v>7.977976554493699</v>
+        <v>8.728925003989616</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.659358414577537</v>
+        <v>1.976285462745633</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.21719794634758</v>
+        <v>33.48345654369174</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.42116480068425</v>
+        <v>27.08624576703634</v>
       </c>
       <c r="N18">
-        <v>19.74460921141118</v>
+        <v>14.34880241335859</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.26284110315372</v>
+        <v>34.52943409856506</v>
       </c>
       <c r="C19">
-        <v>19.74659980547225</v>
+        <v>34.13853289933289</v>
       </c>
       <c r="D19">
-        <v>6.361632066755702</v>
+        <v>8.905500652788691</v>
       </c>
       <c r="E19">
-        <v>7.971704257282132</v>
+        <v>8.683203900536506</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.659792507600479</v>
+        <v>1.977924891432469</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.19084818253043</v>
+        <v>33.35016184763052</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.39158015059672</v>
+        <v>26.94683772472137</v>
       </c>
       <c r="N19">
-        <v>19.74526848004957</v>
+        <v>14.34650507253551</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.51071847522681</v>
+        <v>35.33267139910347</v>
       </c>
       <c r="C20">
-        <v>20.02849213659632</v>
+        <v>34.9480616055596</v>
       </c>
       <c r="D20">
-        <v>6.40974359366082</v>
+        <v>9.111947304374372</v>
       </c>
       <c r="E20">
-        <v>8.000049110459113</v>
+        <v>8.888577034144916</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.657849742135402</v>
+        <v>1.970526635260873</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.3097904782348</v>
+        <v>33.95159225905562</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.52480123263211</v>
+        <v>27.57277590469777</v>
       </c>
       <c r="N20">
-        <v>19.74243266458898</v>
+        <v>14.35792004295416</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.33160485160891</v>
+        <v>38.00401929439554</v>
       </c>
       <c r="C21">
-        <v>20.95513090951601</v>
+        <v>37.64946441373147</v>
       </c>
       <c r="D21">
-        <v>6.571305899374334</v>
+        <v>9.798834542949271</v>
       </c>
       <c r="E21">
-        <v>8.097304897548693</v>
+        <v>9.573790543856635</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.651508713533365</v>
+        <v>1.945205380399437</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.7155647766928</v>
+        <v>36.01800702153533</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.97349792381265</v>
+        <v>29.65622298457766</v>
       </c>
       <c r="N21">
-        <v>19.73520873124717</v>
+        <v>14.41701908783677</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.85828476708469</v>
+        <v>39.73820528762236</v>
       </c>
       <c r="C22">
-        <v>21.54467663743613</v>
+        <v>39.41095197293651</v>
       </c>
       <c r="D22">
-        <v>6.676645754868922</v>
+        <v>10.24503467892311</v>
       </c>
       <c r="E22">
-        <v>8.162301206139658</v>
+        <v>10.0205279761601</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.647502341533898</v>
+        <v>1.928165862700729</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.98503375835221</v>
+        <v>37.61059182663226</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.26705271809106</v>
+        <v>31.0104212766216</v>
       </c>
       <c r="N22">
-        <v>19.73221930529108</v>
+        <v>14.47374295275266</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.57813937074247</v>
+        <v>38.81307017082023</v>
       </c>
       <c r="C23">
-        <v>21.23154265498241</v>
+        <v>38.47046868502099</v>
       </c>
       <c r="D23">
-        <v>6.620458496524555</v>
+        <v>10.00697038625444</v>
       </c>
       <c r="E23">
-        <v>8.127484952488244</v>
+        <v>9.782013747748438</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.649628072484258</v>
+        <v>1.937315634623696</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.84084213976264</v>
+        <v>36.7585695263223</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.1103810908647</v>
+        <v>30.28782039782362</v>
       </c>
       <c r="N23">
-        <v>19.7336554178948</v>
+        <v>14.44162218265139</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.49714872409178</v>
+        <v>35.28868412502161</v>
       </c>
       <c r="C24">
-        <v>20.01308679918917</v>
+        <v>34.90369747820304</v>
       </c>
       <c r="D24">
-        <v>6.407101375073526</v>
+        <v>9.100640785699635</v>
       </c>
       <c r="E24">
-        <v>7.998484763027849</v>
+        <v>8.877322619184906</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.657955725587743</v>
+        <v>1.970934335588384</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.30323484540191</v>
+        <v>33.91845687502271</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.51747994074832</v>
+        <v>27.53849222350862</v>
       </c>
       <c r="N24">
-        <v>19.74257976352843</v>
+        <v>14.35722110262721</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.29514688180665</v>
+        <v>31.38473399510069</v>
       </c>
       <c r="C25">
-        <v>18.63532756477963</v>
+        <v>30.98100469833189</v>
       </c>
       <c r="D25">
-        <v>6.177114105661265</v>
+        <v>8.097555004792738</v>
       </c>
       <c r="E25">
-        <v>7.865954436815235</v>
+        <v>7.950678995859407</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.667537252770455</v>
+        <v>2.005952916861308</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.74365115702656</v>
+        <v>31.07422256237278</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.88258495423499</v>
+        <v>24.4980927897764</v>
       </c>
       <c r="N25">
-        <v>19.75954658430596</v>
+        <v>14.32805552572212</v>
       </c>
       <c r="O25">
         <v>0</v>
